--- a/src/test/java/remoteService/member/loginServiceTestData.xlsx
+++ b/src/test/java/remoteService/member/loginServiceTestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/remoteService/member/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevinwinarko/eclipse-workspace/DanaPulsaAutomationTest/src/test/java/testCases/login/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0E359A-43E1-774D-BEC7-179CDBC2BAA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF41720-04F8-1444-B9F2-6D60E0ADB029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16020" xr2:uid="{0BFCFD56-4938-304E-8F8D-A74A800CA122}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>phone</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>abcdefghi</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>6282164886204</t>
@@ -427,16 +430,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B4379C6-7019-914F-849D-F76F3D54BFD1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD1AC9A-CF58-4244-9DE6-AF1D9D62D2C7}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -451,27 +454,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -480,7 +483,9 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
